--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ptn-Ptprb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ptn-Ptprb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Ptprb</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>3.270036666666666</v>
+        <v>0.06520933333333333</v>
       </c>
       <c r="H2">
-        <v>9.81011</v>
+        <v>0.195628</v>
       </c>
       <c r="I2">
-        <v>0.359406393324744</v>
+        <v>0.007116089623850998</v>
       </c>
       <c r="J2">
-        <v>0.3594063933247441</v>
+        <v>0.007116089623850999</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>62.90731233333333</v>
+        <v>154.017718</v>
       </c>
       <c r="N2">
-        <v>188.721937</v>
+        <v>462.0531539999999</v>
       </c>
       <c r="O2">
-        <v>0.9393635410440488</v>
+        <v>0.9743120958630357</v>
       </c>
       <c r="P2">
-        <v>0.9393635410440487</v>
+        <v>0.9743120958630357</v>
       </c>
       <c r="Q2">
-        <v>205.7092179314522</v>
+        <v>10.04339271230133</v>
       </c>
       <c r="R2">
-        <v>1851.38296138307</v>
+        <v>90.39053441071199</v>
       </c>
       <c r="S2">
-        <v>0.3376132623074017</v>
+        <v>0.006933292195763467</v>
       </c>
       <c r="T2">
-        <v>0.3376132623074017</v>
+        <v>0.006933292195763468</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>3.270036666666666</v>
+        <v>0.06520933333333333</v>
       </c>
       <c r="H3">
-        <v>9.81011</v>
+        <v>0.195628</v>
       </c>
       <c r="I3">
-        <v>0.359406393324744</v>
+        <v>0.007116089623850998</v>
       </c>
       <c r="J3">
-        <v>0.3594063933247441</v>
+        <v>0.007116089623850999</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>6.761896999999999</v>
       </c>
       <c r="O3">
-        <v>0.03365734588711396</v>
+        <v>0.0142585284421194</v>
       </c>
       <c r="P3">
-        <v>0.03365734588711396</v>
+        <v>0.0142585284421194</v>
       </c>
       <c r="Q3">
-        <v>7.370550375407777</v>
+        <v>0.1469795984795555</v>
       </c>
       <c r="R3">
-        <v>66.33495337866999</v>
+        <v>1.322816386316</v>
       </c>
       <c r="S3">
-        <v>0.01209666529417103</v>
+        <v>0.0001014649662983502</v>
       </c>
       <c r="T3">
-        <v>0.01209666529417104</v>
+        <v>0.0001014649662983502</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>3.270036666666666</v>
+        <v>0.06520933333333333</v>
       </c>
       <c r="H4">
-        <v>9.81011</v>
+        <v>0.195628</v>
       </c>
       <c r="I4">
-        <v>0.359406393324744</v>
+        <v>0.007116089623850998</v>
       </c>
       <c r="J4">
-        <v>0.3594063933247441</v>
+        <v>0.007116089623850999</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>5.420213</v>
       </c>
       <c r="O4">
-        <v>0.02697911306883729</v>
+        <v>0.011429375694845</v>
       </c>
       <c r="P4">
-        <v>0.02697911306883729</v>
+        <v>0.011429375694845</v>
       </c>
       <c r="Q4">
-        <v>5.908098417047777</v>
+        <v>0.1178161587515555</v>
       </c>
       <c r="R4">
-        <v>53.17288575343</v>
+        <v>1.060345428764</v>
       </c>
       <c r="S4">
-        <v>0.009696465723171276</v>
+        <v>8.133246178918128E-05</v>
       </c>
       <c r="T4">
-        <v>0.009696465723171278</v>
+        <v>8.133246178918128E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,13 +705,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.828401</v>
+        <v>3.270036666666666</v>
       </c>
       <c r="H5">
-        <v>17.485203</v>
+        <v>9.81011</v>
       </c>
       <c r="I5">
-        <v>0.6405936066752559</v>
+        <v>0.3568488252184601</v>
       </c>
       <c r="J5">
-        <v>0.640593606675256</v>
+        <v>0.3568488252184602</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>62.90731233333333</v>
+        <v>154.017718</v>
       </c>
       <c r="N5">
-        <v>188.721937</v>
+        <v>462.0531539999999</v>
       </c>
       <c r="O5">
-        <v>0.9393635410440488</v>
+        <v>0.9743120958630357</v>
       </c>
       <c r="P5">
-        <v>0.9393635410440487</v>
+        <v>0.9743120958630357</v>
       </c>
       <c r="Q5">
-        <v>366.6490421109123</v>
+        <v>503.6435851763266</v>
       </c>
       <c r="R5">
-        <v>3299.841378998211</v>
+        <v>4532.792266586939</v>
       </c>
       <c r="S5">
-        <v>0.601750278736647</v>
+        <v>0.3476821268048599</v>
       </c>
       <c r="T5">
-        <v>0.6017502787366471</v>
+        <v>0.34768212680486</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.828401</v>
+        <v>3.270036666666666</v>
       </c>
       <c r="H6">
-        <v>17.485203</v>
+        <v>9.81011</v>
       </c>
       <c r="I6">
-        <v>0.6405936066752559</v>
+        <v>0.3568488252184601</v>
       </c>
       <c r="J6">
-        <v>0.640593606675256</v>
+        <v>0.3568488252184602</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>6.761896999999999</v>
       </c>
       <c r="O6">
-        <v>0.03365734588711396</v>
+        <v>0.0142585284421194</v>
       </c>
       <c r="P6">
-        <v>0.03365734588711396</v>
+        <v>0.0142585284421194</v>
       </c>
       <c r="Q6">
-        <v>13.13701574556567</v>
+        <v>7.370550375407777</v>
       </c>
       <c r="R6">
-        <v>118.233141710091</v>
+        <v>66.33495337866999</v>
       </c>
       <c r="S6">
-        <v>0.02156068059294292</v>
+        <v>0.005088139123914306</v>
       </c>
       <c r="T6">
-        <v>0.02156068059294292</v>
+        <v>0.005088139123914308</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,14 +829,14 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.828401</v>
+        <v>3.270036666666666</v>
       </c>
       <c r="H7">
-        <v>17.485203</v>
+        <v>9.81011</v>
       </c>
       <c r="I7">
-        <v>0.6405936066752559</v>
+        <v>0.3568488252184601</v>
       </c>
       <c r="J7">
-        <v>0.640593606675256</v>
+        <v>0.3568488252184602</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,208 @@
         <v>5.420213</v>
       </c>
       <c r="O7">
-        <v>0.02697911306883729</v>
+        <v>0.011429375694845</v>
       </c>
       <c r="P7">
-        <v>0.02697911306883729</v>
+        <v>0.011429375694845</v>
       </c>
       <c r="Q7">
+        <v>5.908098417047777</v>
+      </c>
+      <c r="R7">
+        <v>53.17288575342999</v>
+      </c>
+      <c r="S7">
+        <v>0.004078559289685858</v>
+      </c>
+      <c r="T7">
+        <v>0.004078559289685858</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>5.828401</v>
+      </c>
+      <c r="H8">
+        <v>17.485203</v>
+      </c>
+      <c r="I8">
+        <v>0.6360350851576888</v>
+      </c>
+      <c r="J8">
+        <v>0.6360350851576889</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>154.017718</v>
+      </c>
+      <c r="N8">
+        <v>462.0531539999999</v>
+      </c>
+      <c r="O8">
+        <v>0.9743120958630357</v>
+      </c>
+      <c r="P8">
+        <v>0.9743120958630357</v>
+      </c>
+      <c r="Q8">
+        <v>897.6770216089179</v>
+      </c>
+      <c r="R8">
+        <v>8079.093194480262</v>
+      </c>
+      <c r="S8">
+        <v>0.6196966768624121</v>
+      </c>
+      <c r="T8">
+        <v>0.6196966768624123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5.828401</v>
+      </c>
+      <c r="H9">
+        <v>17.485203</v>
+      </c>
+      <c r="I9">
+        <v>0.6360350851576888</v>
+      </c>
+      <c r="J9">
+        <v>0.6360350851576889</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.253965666666666</v>
+      </c>
+      <c r="N9">
+        <v>6.761896999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.0142585284421194</v>
+      </c>
+      <c r="P9">
+        <v>0.0142585284421194</v>
+      </c>
+      <c r="Q9">
+        <v>13.13701574556567</v>
+      </c>
+      <c r="R9">
+        <v>118.233141710091</v>
+      </c>
+      <c r="S9">
+        <v>0.009068924351906737</v>
+      </c>
+      <c r="T9">
+        <v>0.009068924351906739</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5.828401</v>
+      </c>
+      <c r="H10">
+        <v>17.485203</v>
+      </c>
+      <c r="I10">
+        <v>0.6360350851576888</v>
+      </c>
+      <c r="J10">
+        <v>0.6360350851576889</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.806737666666667</v>
+      </c>
+      <c r="N10">
+        <v>5.420213</v>
+      </c>
+      <c r="O10">
+        <v>0.011429375694845</v>
+      </c>
+      <c r="P10">
+        <v>0.011429375694845</v>
+      </c>
+      <c r="Q10">
         <v>10.53039162313767</v>
       </c>
-      <c r="R7">
-        <v>94.77352460823901</v>
-      </c>
-      <c r="S7">
-        <v>0.01728264734566601</v>
-      </c>
-      <c r="T7">
-        <v>0.01728264734566601</v>
+      <c r="R10">
+        <v>94.773524608239</v>
+      </c>
+      <c r="S10">
+        <v>0.007269483943369957</v>
+      </c>
+      <c r="T10">
+        <v>0.007269483943369957</v>
       </c>
     </row>
   </sheetData>
